--- a/Registro de Métricas - Kairos - NexTech.xlsx
+++ b/Registro de Métricas - Kairos - NexTech.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Hoja 2" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,17 +11,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>Métrica</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Ratio de retrabajo</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>(Trabajo rehecho / Trabajo total) * 100</t>
+  </si>
+  <si>
+    <t>Cronograma vs estimado</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>((tiempo real - tiempo estimado)/tiempo estimado * 100)</t>
+  </si>
+  <si>
+    <t>pcu x h-h</t>
+  </si>
+  <si>
+    <t>Puntos de caso de uso realizados / Cantidad de Horas-Hombre</t>
+  </si>
+  <si>
+    <t>documentos revisados</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>promedio de errores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio de errores encontrados por documento/ Cantidad de documentos. 
+Promedio de errores encontrados = Suma total de errores encontrados/Cantidad de secciones.
+</t>
+  </si>
+  <si>
+    <t>cobertura de las pruebas</t>
+  </si>
+  <si>
+    <t>(Casos de prueba ejecutados / casos de prueba planificados) * 100</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,26 +99,323 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF374139"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF49564C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF374139"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374139"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF49564C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF49564C"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF374139"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374139"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF49564C"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF374139"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF374139"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374139"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF374139"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF374139"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF374139"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF374139"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF374139"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374139"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374139"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF374139"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF374139"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF49564C"/>
+          <bgColor rgb="FF49564C"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="Hoja 2-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D15" displayName="Horario_de_atención" name="Horario_de_atención" id="1">
+  <tableColumns count="4">
+    <tableColumn name="Métrica" id="1"/>
+    <tableColumn name="Categoría" id="2"/>
+    <tableColumn name="Descripción" id="3"/>
+    <tableColumn name="Notas" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="Hoja 2-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -254,10 +618,161 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.75"/>
+    <col customWidth="1" min="2" max="2" width="13.0"/>
+    <col customWidth="1" min="3" max="3" width="30.38"/>
+    <col customWidth="1" min="4" max="4" width="15.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="B2:B15">
+      <formula1>"Producto,Proceso,Proyecto"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A15 C2:D15"/>
+  </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Registro de Métricas - Kairos - NexTech.xlsx
+++ b/Registro de Métricas - Kairos - NexTech.xlsx
@@ -4,6 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Hoja 2" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Ratio de iteraciones" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Reuniones realizadas" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Revision Técnica Formal (RTF) x" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Revisiones de documentación" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Métrica</t>
   </si>
@@ -67,6 +71,36 @@
   </si>
   <si>
     <t>(Casos de prueba ejecutados / casos de prueba planificados) * 100</t>
+  </si>
+  <si>
+    <t>Etapa</t>
+  </si>
+  <si>
+    <t>Trabajo total</t>
+  </si>
+  <si>
+    <t>Iteración(ajustes o modificaciones sobre entregas previas)</t>
+  </si>
+  <si>
+    <t>Inicio I-1</t>
+  </si>
+  <si>
+    <t>Elaboración I-1</t>
+  </si>
+  <si>
+    <t>Elaboración I-2</t>
+  </si>
+  <si>
+    <t>Previstas</t>
+  </si>
+  <si>
+    <t>Realizadas</t>
+  </si>
+  <si>
+    <t>Etiqueta</t>
+  </si>
+  <si>
+    <t>Construcción</t>
   </si>
 </sst>
 </file>
@@ -99,7 +133,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin">
@@ -267,13 +301,27 @@
       </top>
       <bottom style="thin">
         <color rgb="FF374139"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -349,6 +397,10 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -393,16 +445,33 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Hoja 2-style">
+    <tableStyle count="4" pivot="0" name="Hoja 2-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -628,7 +697,7 @@
     <col customWidth="1" min="1" max="1" width="20.75"/>
     <col customWidth="1" min="2" max="2" width="13.0"/>
     <col customWidth="1" min="3" max="3" width="30.38"/>
-    <col customWidth="1" min="4" max="4" width="15.13"/>
+    <col customWidth="1" min="4" max="4" width="41.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -775,4 +844,270 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="44.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="25">
+        <v>8.0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="25">
+        <v>11.0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="44.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="44.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="44.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Registro de Métricas - Kairos - NexTech.xlsx
+++ b/Registro de Métricas - Kairos - NexTech.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Hoja 2" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ratio de iteraciones" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Ratio de ajustes en documentos" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Reuniones realizadas" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Revision Técnica Formal (RTF) x" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Revisiones de documentación" sheetId="5" r:id="rId8"/>
@@ -79,7 +79,7 @@
     <t>Trabajo total</t>
   </si>
   <si>
-    <t>Iteración(ajustes o modificaciones sobre entregas previas)</t>
+    <t>ajustes en documento</t>
   </si>
   <si>
     <t>Inicio I-1</t>
